--- a/generated_files/ecoinvent_3.6/Hellisheidi impacts.xlsx
+++ b/generated_files/ecoinvent_3.6/Hellisheidi impacts.xlsx
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.02456158047807421</v>
+        <v>0.02321097624268945</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>7.566982438118554e-10</v>
+        <v>4.501101048536752e-10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0.0001334074822905135</v>
+        <v>7.98534541565203e-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>2.091628663309905e-09</v>
+        <v>1.262106585610939e-09</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>4.229116873252365e-10</v>
+        <v>2.48011777643617e-10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>3.144682173398713e-05</v>
+        <v>1.758038848441093e-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,7 +582,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>2.162660638149188e-10</v>
+        <v>1.46154786129859e-10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -599,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>2.960897190066982e-05</v>
+        <v>1.777843225227678e-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -616,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0.02046977265543986</v>
+        <v>0.01113417299502995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -633,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>1.716235601245915e-07</v>
+        <v>1.110178587469519e-07</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -650,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>9.868470875759387e-06</v>
+        <v>5.414020516292887e-06</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -667,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>0.0001065883533773177</v>
+        <v>5.825431234064432e-05</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>0.001162141194916894</v>
+        <v>0.0007935507406913846</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -701,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>0.05080541458636739</v>
+        <v>0.03180380440829048</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -718,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>0.017535107432129</v>
+        <v>0.01243085060845515</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>8.914578809208101e-08</v>
+        <v>6.789244634457656e-08</v>
       </c>
     </row>
   </sheetData>
